--- a/output/PA73405 - Attrition by Job 2009 - Strategy - 2019-02-17.xlsx
+++ b/output/PA73405 - Attrition by Job 2009 - Strategy - 2019-02-17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t xml:space="preserve">0.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department Leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional Leader</t>
   </si>
   <si>
     <t xml:space="preserve">Information</t>
@@ -140,8 +146,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F6" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F8" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
     <tableColumn id="1" name="year"/>
     <tableColumn id="2" name="job_name"/>
@@ -569,6 +575,46 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -591,37 +637,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
